--- a/xlsx/心理学大纲_intext.xlsx
+++ b/xlsx/心理学大纲_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
   <si>
     <t>心理学大纲</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -101,43 +101,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -161,43 +161,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%B6%B1</t>
   </si>
   <si>
-    <t>大綱</t>
+    <t>大纲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA</t>
@@ -389,9 +389,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理学学科列表</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Asian_psychology</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>生物心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Black_psychology</t>
   </si>
   <si>
@@ -425,9 +419,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>认知心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Conservation_psychology</t>
   </si>
   <si>
@@ -437,21 +428,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪心理學</t>
+    <t>犯罪心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>发展心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>实验心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Forensic_developmental_psychology</t>
   </si>
   <si>
@@ -467,9 +452,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>健康心理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Indigenous_psychology</t>
   </si>
   <si>
@@ -479,15 +461,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>数学心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>神经心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -521,9 +497,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>社会心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%B8%AA%E4%BA%BA%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -533,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Child_psychopathology</t>
@@ -611,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神病理學</t>
+    <t>精神病理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -641,15 +614,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>教育心理学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
   </si>
   <si>
-    <t>人因工程学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Legal_psychology</t>
   </si>
   <si>
@@ -671,9 +638,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%AD%A6%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理学学派列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%BF%83%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -695,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>認知主義</t>
+    <t>认知主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Depth_psychology</t>
@@ -767,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transactional_analysis</t>
@@ -779,15 +743,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%80%8B%E4%BA%BA%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>超個人心理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理学史</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychotherapy</t>
   </si>
   <si>
@@ -809,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%81%8F%E8%AA%A4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>認知偏誤列表</t>
+    <t>认知偏误列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%BB%AA</t>
@@ -881,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%84%9F%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>情感障礙</t>
+    <t>情感障碍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_neurological_disorders</t>
@@ -3249,7 +3207,7 @@
         <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3333,10 +3291,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3391,10 +3349,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3420,10 +3378,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3449,10 +3407,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3478,10 +3436,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3507,10 +3465,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3565,10 +3523,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3594,10 +3552,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3623,10 +3581,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3681,10 +3639,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3710,10 +3668,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3739,10 +3697,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3768,10 +3726,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3797,10 +3755,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3826,10 +3784,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3855,10 +3813,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3884,10 +3842,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3913,10 +3871,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3971,10 +3929,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4000,10 +3958,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4029,10 +3987,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4058,10 +4016,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4087,10 +4045,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4116,10 +4074,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4145,10 +4103,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4174,10 +4132,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4203,10 +4161,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4232,10 +4190,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4261,10 +4219,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4290,10 +4248,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4319,10 +4277,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4348,10 +4306,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4377,10 +4335,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4406,10 +4364,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4464,10 +4422,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4493,10 +4451,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4522,10 +4480,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4551,10 +4509,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4580,10 +4538,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4609,10 +4567,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4638,10 +4596,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4667,10 +4625,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4696,10 +4654,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4754,10 +4712,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4783,10 +4741,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4812,10 +4770,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4841,10 +4799,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4870,10 +4828,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4899,10 +4857,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4928,10 +4886,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4957,10 +4915,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4986,10 +4944,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5015,10 +4973,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5044,10 +5002,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5073,10 +5031,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5102,10 +5060,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5131,10 +5089,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5160,10 +5118,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5189,10 +5147,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5247,10 +5205,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5276,10 +5234,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5305,10 +5263,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5334,10 +5292,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5363,10 +5321,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5392,10 +5350,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5421,10 +5379,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5450,10 +5408,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5479,10 +5437,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5508,10 +5466,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5537,10 +5495,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5566,10 +5524,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5595,10 +5553,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5624,10 +5582,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5653,10 +5611,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5682,10 +5640,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5711,10 +5669,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5740,10 +5698,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5769,10 +5727,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5798,10 +5756,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -5827,10 +5785,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5856,10 +5814,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5885,10 +5843,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5914,10 +5872,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5943,10 +5901,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5972,10 +5930,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6001,10 +5959,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6030,10 +5988,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6059,10 +6017,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6088,10 +6046,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6117,10 +6075,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6146,10 +6104,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6175,10 +6133,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6204,10 +6162,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6233,10 +6191,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6262,10 +6220,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6291,10 +6249,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6320,10 +6278,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6349,10 +6307,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6378,10 +6336,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6407,10 +6365,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6436,10 +6394,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6465,10 +6423,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6494,10 +6452,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6523,10 +6481,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6552,10 +6510,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6581,10 +6539,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6610,10 +6568,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6639,10 +6597,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6668,10 +6626,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6697,10 +6655,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6726,10 +6684,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6755,10 +6713,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6784,10 +6742,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6813,10 +6771,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6842,10 +6800,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6871,10 +6829,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6900,10 +6858,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6929,10 +6887,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6958,10 +6916,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6987,10 +6945,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
